--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +491,24 @@
           <t>詹奕菲</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1305776</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1305776</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20090604</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20090604</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>9岁2月</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20180819</t>
-        </is>
+      <c r="F2" t="n">
+        <v>20180819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -543,30 +537,24 @@
           <t>陈梓婷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1050667</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1050667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20061103</t>
-        </is>
+      <c r="D3" t="n">
+        <v>20061103</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>13岁8月</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20200727</t>
-        </is>
+      <c r="F3" t="n">
+        <v>20200727</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -595,30 +583,24 @@
           <t>赵乔恩</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0910206</t>
-        </is>
+      <c r="B4" t="n">
+        <v>910206</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20080813</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20080813</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>8岁11月</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20170803</t>
-        </is>
+      <c r="F4" t="n">
+        <v>20170803</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -647,30 +629,24 @@
           <t>赵曼希</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0938095</t>
-        </is>
+      <c r="B5" t="n">
+        <v>938095</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20090505</t>
-        </is>
+      <c r="D5" t="n">
+        <v>20090505</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>11岁4月</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20200930</t>
-        </is>
+      <c r="F5" t="n">
+        <v>20200930</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -699,30 +675,24 @@
           <t>齐泽菡</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0724391</t>
-        </is>
+      <c r="B6" t="n">
+        <v>724391</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20081109</t>
-        </is>
+      <c r="D6" t="n">
+        <v>20081109</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>6岁9月</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20150828</t>
-        </is>
+      <c r="F6" t="n">
+        <v>20150828</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -751,30 +721,24 @@
           <t>方珊山</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1051040</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1051040</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20071123</t>
-        </is>
+      <c r="D7" t="n">
+        <v>20071123</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>10岁7月</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>20180711</t>
-        </is>
+      <c r="F7" t="n">
+        <v>20180711</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -803,30 +767,24 @@
           <t>安珍慧</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0787786</t>
-        </is>
+      <c r="B8" t="n">
+        <v>787786</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20080509</t>
-        </is>
+      <c r="D8" t="n">
+        <v>20080509</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>8岁11月</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>20170423</t>
-        </is>
+      <c r="F8" t="n">
+        <v>20170423</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -855,30 +813,24 @@
           <t>朱焜钰</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1363342</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1363342</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20101130</t>
-        </is>
+      <c r="D9" t="n">
+        <v>20101130</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>8岁5月</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20190504</t>
-        </is>
+      <c r="F9" t="n">
+        <v>20190504</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -907,30 +859,24 @@
           <t>YI_SI_TONG_</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0820269</t>
-        </is>
+      <c r="B10" t="n">
+        <v>820269</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20120817</t>
-        </is>
+      <c r="D10" t="n">
+        <v>20120817</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>9岁0月</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20210821</t>
-        </is>
+      <c r="F10" t="n">
+        <v>20210821</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -959,49 +905,1861 @@
           <t>冯诗蕊</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>1496769</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20110518</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>20200106</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>詹奕菲</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1305776</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20090604</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>20180819</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DU_CHENG_JIN_</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1511504</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20120507</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>20200906</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>王雨萱</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>759643</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20081223</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>20200321</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>周筱彤</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>938376</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20080201</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>20161124</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>王语菲</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1048090</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20070418</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>20171118</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>付晋源</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1104003</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20081012</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>20180303</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>张晋宁</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>856362</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20060101</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>20150827</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>林雨欣</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>989999</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20090427</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>20190629</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>钟奥淇</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>818815</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20070316</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>20151023</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>洪慧乔</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1360950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20100528</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20190602</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>傅敏而</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1001332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20080901</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20180624</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>章琪敏</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0939509</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20051231</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11岁11月</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>20171130</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>朱美瑜</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0908693</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20071203</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>20160221</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>肖子夕</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1431744</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20101027</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20190609</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>徐紫薇</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0966228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20080426</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>20160803</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>王宝怿</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0939839</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20070124</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>20160522</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>陈蓝</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1393257</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20081029</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>20201223</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>李欣乐</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0956641</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20110516</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20210612</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>黄皓谦</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1557870</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20161230</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3岁10月</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3岁10月</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4岁1月</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4岁2月</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>3岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>张墨桐</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0914313</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20110914</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>20200916</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>李嘉琦</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0867784</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20071128</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>20161007</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>冯诗蕊</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>1496769</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>20110518</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>8岁7月</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>20200106</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>10岁10月</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>10岁2月</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>10岁7月</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>赖佳婧</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0630744</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20051029</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12岁9月</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>20180820</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>黄思晴</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0856055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20060701</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>20150826</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>欧旭必丽</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0893345</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20060413</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>20170125</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>张馨尹</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1544861</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20090825</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>20210317</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>12岁7月</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>周筱彤</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0938376</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20080201</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>20171004</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>周宇桐</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1323255</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20091105</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>20180917</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>7岁7月</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>张馨尹</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1544861</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20090825</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>汪梓淇</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0859387</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20070710</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>20160822</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>陈奕瑾</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1070903</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20090306</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>20170618</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>朱宸希</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0910645</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20080815</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20190901</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>杨影</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0850052</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20050710</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20180131</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>12岁8月</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>颜骐武</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1031590</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20140515</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2岁9月</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>20170312</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3岁0月</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2岁4月</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2岁9月</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>蒋诗琦</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1264292</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20070831</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12岁8月</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>20200513</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>14岁4月</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12岁7月</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>14岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>李妍</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1162191</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20070518</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>20171223</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
         </is>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,30 +1365,24 @@
           <t>洪慧乔</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1360950</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1360950</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20100528</t>
-        </is>
+      <c r="D21" t="n">
+        <v>20100528</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>9岁0月</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>20190602</t>
-        </is>
+      <c r="F21" t="n">
+        <v>20190602</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1417,30 +1411,24 @@
           <t>傅敏而</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1001332</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1001332</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20080901</t>
-        </is>
+      <c r="D22" t="n">
+        <v>20080901</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>20180624</t>
-        </is>
+      <c r="F22" t="n">
+        <v>20180624</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1469,30 +1457,24 @@
           <t>章琪敏</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0939509</t>
-        </is>
+      <c r="B23" t="n">
+        <v>939509</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20051231</t>
-        </is>
+      <c r="D23" t="n">
+        <v>20051231</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>11岁11月</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>20171130</t>
-        </is>
+      <c r="F23" t="n">
+        <v>20171130</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1521,30 +1503,24 @@
           <t>朱美瑜</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0908693</t>
-        </is>
+      <c r="B24" t="n">
+        <v>908693</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20071203</t>
-        </is>
+      <c r="D24" t="n">
+        <v>20071203</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>8岁2月</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>20160221</t>
-        </is>
+      <c r="F24" t="n">
+        <v>20160221</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1573,30 +1549,24 @@
           <t>肖子夕</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1431744</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1431744</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20101027</t>
-        </is>
+      <c r="D25" t="n">
+        <v>20101027</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>8岁7月</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>20190609</t>
-        </is>
+      <c r="F25" t="n">
+        <v>20190609</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1625,30 +1595,24 @@
           <t>徐紫薇</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0966228</t>
-        </is>
+      <c r="B26" t="n">
+        <v>966228</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20080426</t>
-        </is>
+      <c r="D26" t="n">
+        <v>20080426</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>8岁3月</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>20160803</t>
-        </is>
+      <c r="F26" t="n">
+        <v>20160803</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1677,30 +1641,24 @@
           <t>王宝怿</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0939839</t>
-        </is>
+      <c r="B27" t="n">
+        <v>939839</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20070124</t>
-        </is>
+      <c r="D27" t="n">
+        <v>20070124</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>20160522</t>
-        </is>
+      <c r="F27" t="n">
+        <v>20160522</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1729,30 +1687,24 @@
           <t>陈蓝</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1393257</t>
-        </is>
+      <c r="B28" t="n">
+        <v>1393257</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20081029</t>
-        </is>
+      <c r="D28" t="n">
+        <v>20081029</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>12岁1月</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>20201223</t>
-        </is>
+      <c r="F28" t="n">
+        <v>20201223</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1781,30 +1733,24 @@
           <t>李欣乐</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0956641</t>
-        </is>
+      <c r="B29" t="n">
+        <v>956641</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20110516</t>
-        </is>
+      <c r="D29" t="n">
+        <v>20110516</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>10岁0月</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>20210612</t>
-        </is>
+      <c r="F29" t="n">
+        <v>20210612</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1833,30 +1779,24 @@
           <t>黄皓谦</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1557870</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1557870</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20161230</t>
-        </is>
+      <c r="D30" t="n">
+        <v>20161230</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>3岁10月</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
+      <c r="F30" t="n">
+        <v>20201030</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1885,30 +1825,24 @@
           <t>张墨桐</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0914313</t>
-        </is>
+      <c r="B31" t="n">
+        <v>914313</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20110914</t>
-        </is>
+      <c r="D31" t="n">
+        <v>20110914</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>9岁0月</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>20200916</t>
-        </is>
+      <c r="F31" t="n">
+        <v>20200916</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1937,30 +1871,24 @@
           <t>李嘉琦</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0867784</t>
-        </is>
+      <c r="B32" t="n">
+        <v>867784</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20071128</t>
-        </is>
+      <c r="D32" t="n">
+        <v>20071128</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>8岁10月</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>20161007</t>
-        </is>
+      <c r="F32" t="n">
+        <v>20161007</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1989,30 +1917,24 @@
           <t>冯诗蕊</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1496769</t>
-        </is>
+      <c r="B33" t="n">
+        <v>1496769</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20110518</t>
-        </is>
+      <c r="D33" t="n">
+        <v>20110518</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>8岁7月</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>20200106</t>
-        </is>
+      <c r="F33" t="n">
+        <v>20200106</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2041,30 +1963,24 @@
           <t>赖佳婧</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0630744</t>
-        </is>
+      <c r="B34" t="n">
+        <v>630744</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20051029</t>
-        </is>
+      <c r="D34" t="n">
+        <v>20051029</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>12岁9月</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20180820</t>
-        </is>
+      <c r="F34" t="n">
+        <v>20180820</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2093,30 +2009,24 @@
           <t>黄思晴</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0856055</t>
-        </is>
+      <c r="B35" t="n">
+        <v>856055</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20060701</t>
-        </is>
+      <c r="D35" t="n">
+        <v>20060701</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>9岁1月</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>20150826</t>
-        </is>
+      <c r="F35" t="n">
+        <v>20150826</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2145,30 +2055,24 @@
           <t>欧旭必丽</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0893345</t>
-        </is>
+      <c r="B36" t="n">
+        <v>893345</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20060413</t>
-        </is>
+      <c r="D36" t="n">
+        <v>20060413</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>10岁9月</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>20170125</t>
-        </is>
+      <c r="F36" t="n">
+        <v>20170125</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2197,30 +2101,24 @@
           <t>张馨尹</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1544861</t>
-        </is>
+      <c r="B37" t="n">
+        <v>1544861</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20090825</t>
-        </is>
+      <c r="D37" t="n">
+        <v>20090825</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>11岁6月</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>20210317</t>
-        </is>
+      <c r="F37" t="n">
+        <v>20210317</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2249,30 +2147,24 @@
           <t>周筱彤</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0938376</t>
-        </is>
+      <c r="B38" t="n">
+        <v>938376</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20080201</t>
-        </is>
+      <c r="D38" t="n">
+        <v>20080201</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>9岁8月</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>20171004</t>
-        </is>
+      <c r="F38" t="n">
+        <v>20171004</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2301,30 +2193,24 @@
           <t>周宇桐</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1323255</t>
-        </is>
+      <c r="B39" t="n">
+        <v>1323255</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>20091105</t>
-        </is>
+      <c r="D39" t="n">
+        <v>20091105</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>8岁10月</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>20180917</t>
-        </is>
+      <c r="F39" t="n">
+        <v>20180917</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2353,30 +2239,24 @@
           <t>张馨尹</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1544861</t>
-        </is>
+      <c r="B40" t="n">
+        <v>1544861</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>20090825</t>
-        </is>
+      <c r="D40" t="n">
+        <v>20090825</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>11岁0月</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
+      <c r="F40" t="n">
+        <v>20200910</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2405,30 +2285,24 @@
           <t>汪梓淇</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0859387</t>
-        </is>
+      <c r="B41" t="n">
+        <v>859387</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>20070710</t>
-        </is>
+      <c r="D41" t="n">
+        <v>20070710</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>9岁1月</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>20160822</t>
-        </is>
+      <c r="F41" t="n">
+        <v>20160822</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2457,30 +2331,24 @@
           <t>陈奕瑾</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1070903</t>
-        </is>
+      <c r="B42" t="n">
+        <v>1070903</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20090306</t>
-        </is>
+      <c r="D42" t="n">
+        <v>20090306</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>8岁3月</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>20170618</t>
-        </is>
+      <c r="F42" t="n">
+        <v>20170618</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2509,30 +2377,24 @@
           <t>朱宸希</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0910645</t>
-        </is>
+      <c r="B43" t="n">
+        <v>910645</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20080815</t>
-        </is>
+      <c r="D43" t="n">
+        <v>20080815</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>11岁0月</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>20190901</t>
-        </is>
+      <c r="F43" t="n">
+        <v>20190901</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2561,30 +2423,24 @@
           <t>杨影</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0850052</t>
-        </is>
+      <c r="B44" t="n">
+        <v>850052</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20050710</t>
-        </is>
+      <c r="D44" t="n">
+        <v>20050710</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>12岁6月</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>20180131</t>
-        </is>
+      <c r="F44" t="n">
+        <v>20180131</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2613,30 +2469,24 @@
           <t>颜骐武</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1031590</t>
-        </is>
+      <c r="B45" t="n">
+        <v>1031590</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>20140515</t>
-        </is>
+      <c r="D45" t="n">
+        <v>20140515</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>2岁9月</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>20170312</t>
-        </is>
+      <c r="F45" t="n">
+        <v>20170312</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2665,30 +2515,24 @@
           <t>蒋诗琦</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1264292</t>
-        </is>
+      <c r="B46" t="n">
+        <v>1264292</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>20070831</t>
-        </is>
+      <c r="D46" t="n">
+        <v>20070831</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>12岁8月</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>20200513</t>
-        </is>
+      <c r="F46" t="n">
+        <v>20200513</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2717,30 +2561,24 @@
           <t>李妍</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1162191</t>
-        </is>
+      <c r="B47" t="n">
+        <v>1162191</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>20070518</t>
-        </is>
+      <c r="D47" t="n">
+        <v>20070518</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>10岁7月</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>20171223</t>
-        </is>
+      <c r="F47" t="n">
+        <v>20171223</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2760,6 +2598,2290 @@
       <c r="J47" t="inlineStr">
         <is>
           <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>邹俊铃</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>760092</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20081220</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>20160625</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>江昕奕</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1333298</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20120923</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>20201025</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>7岁8月</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>张轩瑜</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1054174</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20080613</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>20190828</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>王梓乐</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>715399</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20080618</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>20190711</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>13岁4月</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>13岁6月</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>何宣瑶</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1078352</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20080314</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>20170708</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>杨思语</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>979047</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20070430</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>20160910</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>陈曦</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1054594</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20080512</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>20180518</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>蒋可鑫</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>955226</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20080228</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>20170401</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>赵曼希</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>938095</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20090505</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>20200930</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>13岁6月</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>张墨桐</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>914313</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20110914</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>20211006</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>王炎舒</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1414522</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20101002</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>20191013</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>于子涵</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>913201</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20090227</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>7岁0月</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>20160306</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>7岁4月</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>何诗涵</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>856323</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20080305</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>20161205</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>赵欣悦</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>850667</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20060531</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>20150811</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>郭思锐</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>785454</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20061224</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>20141112</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>唐静雯</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>932773</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20080822</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7岁8月</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>20160501</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>7岁8月</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>何宣瑶</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1078352</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20080314</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>20191008</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>林俏俏</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>826503</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20071210</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>20160729</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>张雨禾</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1418830</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20090726</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>20190430</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>杨蕙颖</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0956107</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20060303</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>20160708</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>傅敏而</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1001332</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>20080901</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>20170603</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>陈雨溪</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0936145</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>20070914</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>20161209</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>方珊山</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1051040</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20071123</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>9岁5月</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>20170423</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>杨清岚</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1333940</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>20100720</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>20191026</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>丁璇</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1025623</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>20070831</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10岁11月</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>20180802</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>冯怡岚</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0784821</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20110915</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>20191030</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>刘一锦</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1360043</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20070411</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>20181118</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>姚可嘉</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1535742</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>20190621</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2岁2月</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>20210917</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3岁0月</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1岁7月</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>3岁6月</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>叶莺</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1018729</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20070608</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>20171013</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>王嘉淇</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0815374</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20080211</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>20180527</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>钟诗蕴</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0800924</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20041017</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>15岁10月</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>20200818</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15岁0月</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>14岁10月</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>15岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>龙北晨</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1025845</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20090715</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>20170210</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>姚道一</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0839207</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>20130718</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1岁11月</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>20150706</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2岁3月</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2岁4月</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1岁9月</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>曾梓玉</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0955205</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20040904</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>20160706</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>赖佳婧</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0630744</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>20051029</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>20160918</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>尹臻琳</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0934455</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>20070928</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>20170721</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>田智丹</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0922415</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>20050309</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>12岁5月</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>20170814</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>方珊山</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1051040</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>20071123</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>20180117</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>何桐雨</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0910539</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>20070817</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>20180324</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>付芊语</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0917909</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20090420</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7岁4月</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>20160829</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>7岁8月</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>喻欣妍</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1537330</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>20110227</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>20210828</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>12岁10月</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>陈梓睿</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0984142</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>20081111</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>20170921</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>曾钰婷</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0942144</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>20080419</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>20180203</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>张梓妍</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1505513</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>20100617</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>20200320</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>刘可</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1144517</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>20080823</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>20190414</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>QIN_YI_NING</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0745381</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>20080809</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>20161205</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
         </is>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,30 +3435,24 @@
           <t>张雨禾</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1418830</t>
-        </is>
+      <c r="B66" t="n">
+        <v>1418830</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>20090726</t>
-        </is>
+      <c r="D66" t="n">
+        <v>20090726</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>20190430</t>
-        </is>
+      <c r="F66" t="n">
+        <v>20190430</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3487,30 +3481,24 @@
           <t>杨蕙颖</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>0956107</t>
-        </is>
+      <c r="B67" t="n">
+        <v>956107</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>20060303</t>
-        </is>
+      <c r="D67" t="n">
+        <v>20060303</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>10岁4月</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>20160708</t>
-        </is>
+      <c r="F67" t="n">
+        <v>20160708</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3539,30 +3527,24 @@
           <t>傅敏而</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1001332</t>
-        </is>
+      <c r="B68" t="n">
+        <v>1001332</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>20080901</t>
-        </is>
+      <c r="D68" t="n">
+        <v>20080901</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>8岁9月</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>20170603</t>
-        </is>
+      <c r="F68" t="n">
+        <v>20170603</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3591,30 +3573,24 @@
           <t>陈雨溪</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>0936145</t>
-        </is>
+      <c r="B69" t="n">
+        <v>936145</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>20070914</t>
-        </is>
+      <c r="D69" t="n">
+        <v>20070914</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>9岁2月</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>20161209</t>
-        </is>
+      <c r="F69" t="n">
+        <v>20161209</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3643,30 +3619,24 @@
           <t>方珊山</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1051040</t>
-        </is>
+      <c r="B70" t="n">
+        <v>1051040</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>20071123</t>
-        </is>
+      <c r="D70" t="n">
+        <v>20071123</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>9岁5月</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>20170423</t>
-        </is>
+      <c r="F70" t="n">
+        <v>20170423</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3695,30 +3665,24 @@
           <t>杨清岚</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1333940</t>
-        </is>
+      <c r="B71" t="n">
+        <v>1333940</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>20100720</t>
-        </is>
+      <c r="D71" t="n">
+        <v>20100720</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>20191026</t>
-        </is>
+      <c r="F71" t="n">
+        <v>20191026</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3747,30 +3711,24 @@
           <t>丁璇</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1025623</t>
-        </is>
+      <c r="B72" t="n">
+        <v>1025623</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>20070831</t>
-        </is>
+      <c r="D72" t="n">
+        <v>20070831</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>10岁11月</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>20180802</t>
-        </is>
+      <c r="F72" t="n">
+        <v>20180802</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3799,30 +3757,24 @@
           <t>冯怡岚</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0784821</t>
-        </is>
+      <c r="B73" t="n">
+        <v>784821</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>20110915</t>
-        </is>
+      <c r="D73" t="n">
+        <v>20110915</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>8岁1月</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>20191030</t>
-        </is>
+      <c r="F73" t="n">
+        <v>20191030</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3851,30 +3803,24 @@
           <t>刘一锦</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1360043</t>
-        </is>
+      <c r="B74" t="n">
+        <v>1360043</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>20070411</t>
-        </is>
+      <c r="D74" t="n">
+        <v>20070411</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>11岁7月</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>20181118</t>
-        </is>
+      <c r="F74" t="n">
+        <v>20181118</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3903,30 +3849,24 @@
           <t>姚可嘉</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1535742</t>
-        </is>
+      <c r="B75" t="n">
+        <v>1535742</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>20190621</t>
-        </is>
+      <c r="D75" t="n">
+        <v>20190621</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>2岁2月</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>20210917</t>
-        </is>
+      <c r="F75" t="n">
+        <v>20210917</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3955,30 +3895,24 @@
           <t>叶莺</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1018729</t>
-        </is>
+      <c r="B76" t="n">
+        <v>1018729</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>20070608</t>
-        </is>
+      <c r="D76" t="n">
+        <v>20070608</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>10岁4月</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>20171013</t>
-        </is>
+      <c r="F76" t="n">
+        <v>20171013</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4007,30 +3941,24 @@
           <t>王嘉淇</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0815374</t>
-        </is>
+      <c r="B77" t="n">
+        <v>815374</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>20080211</t>
-        </is>
+      <c r="D77" t="n">
+        <v>20080211</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>10岁3月</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>20180527</t>
-        </is>
+      <c r="F77" t="n">
+        <v>20180527</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4059,30 +3987,24 @@
           <t>钟诗蕴</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0800924</t>
-        </is>
+      <c r="B78" t="n">
+        <v>800924</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>20041017</t>
-        </is>
+      <c r="D78" t="n">
+        <v>20041017</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>15岁10月</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>20200818</t>
-        </is>
+      <c r="F78" t="n">
+        <v>20200818</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4111,30 +4033,24 @@
           <t>龙北晨</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1025845</t>
-        </is>
+      <c r="B79" t="n">
+        <v>1025845</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>20090715</t>
-        </is>
+      <c r="D79" t="n">
+        <v>20090715</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>7岁6月</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>20170210</t>
-        </is>
+      <c r="F79" t="n">
+        <v>20170210</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4163,30 +4079,24 @@
           <t>姚道一</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0839207</t>
-        </is>
+      <c r="B80" t="n">
+        <v>839207</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>20130718</t>
-        </is>
+      <c r="D80" t="n">
+        <v>20130718</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>1岁11月</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>20150706</t>
-        </is>
+      <c r="F80" t="n">
+        <v>20150706</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4215,30 +4125,24 @@
           <t>曾梓玉</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0955205</t>
-        </is>
+      <c r="B81" t="n">
+        <v>955205</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>20040904</t>
-        </is>
+      <c r="D81" t="n">
+        <v>20040904</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>11岁10月</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>20160706</t>
-        </is>
+      <c r="F81" t="n">
+        <v>20160706</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4267,30 +4171,24 @@
           <t>赖佳婧</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>0630744</t>
-        </is>
+      <c r="B82" t="n">
+        <v>630744</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>20051029</t>
-        </is>
+      <c r="D82" t="n">
+        <v>20051029</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>10岁10月</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>20160918</t>
-        </is>
+      <c r="F82" t="n">
+        <v>20160918</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4319,30 +4217,24 @@
           <t>尹臻琳</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>0934455</t>
-        </is>
+      <c r="B83" t="n">
+        <v>934455</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>20070928</t>
-        </is>
+      <c r="D83" t="n">
+        <v>20070928</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>20170721</t>
-        </is>
+      <c r="F83" t="n">
+        <v>20170721</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4371,30 +4263,24 @@
           <t>田智丹</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>0922415</t>
-        </is>
+      <c r="B84" t="n">
+        <v>922415</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>20050309</t>
-        </is>
+      <c r="D84" t="n">
+        <v>20050309</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>12岁5月</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>20170814</t>
-        </is>
+      <c r="F84" t="n">
+        <v>20170814</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4423,30 +4309,24 @@
           <t>方珊山</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1051040</t>
-        </is>
+      <c r="B85" t="n">
+        <v>1051040</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>20071123</t>
-        </is>
+      <c r="D85" t="n">
+        <v>20071123</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>10岁1月</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>20180117</t>
-        </is>
+      <c r="F85" t="n">
+        <v>20180117</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4475,30 +4355,24 @@
           <t>何桐雨</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>0910539</t>
-        </is>
+      <c r="B86" t="n">
+        <v>910539</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>20070817</t>
-        </is>
+      <c r="D86" t="n">
+        <v>20070817</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>10岁7月</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>20180324</t>
-        </is>
+      <c r="F86" t="n">
+        <v>20180324</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4527,30 +4401,24 @@
           <t>付芊语</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>0917909</t>
-        </is>
+      <c r="B87" t="n">
+        <v>917909</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>20090420</t>
-        </is>
+      <c r="D87" t="n">
+        <v>20090420</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>7岁4月</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>20160829</t>
-        </is>
+      <c r="F87" t="n">
+        <v>20160829</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4579,30 +4447,24 @@
           <t>喻欣妍</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1537330</t>
-        </is>
+      <c r="B88" t="n">
+        <v>1537330</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>20110227</t>
-        </is>
+      <c r="D88" t="n">
+        <v>20110227</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>10岁6月</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>20210828</t>
-        </is>
+      <c r="F88" t="n">
+        <v>20210828</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4631,30 +4493,24 @@
           <t>陈梓睿</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>0984142</t>
-        </is>
+      <c r="B89" t="n">
+        <v>984142</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>20081111</t>
-        </is>
+      <c r="D89" t="n">
+        <v>20081111</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>8岁10月</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>20170921</t>
-        </is>
+      <c r="F89" t="n">
+        <v>20170921</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4683,30 +4539,24 @@
           <t>曾钰婷</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>0942144</t>
-        </is>
+      <c r="B90" t="n">
+        <v>942144</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>20080419</t>
-        </is>
+      <c r="D90" t="n">
+        <v>20080419</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>20180203</t>
-        </is>
+      <c r="F90" t="n">
+        <v>20180203</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4735,30 +4585,24 @@
           <t>张梓妍</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1505513</t>
-        </is>
+      <c r="B91" t="n">
+        <v>1505513</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>20100617</t>
-        </is>
+      <c r="D91" t="n">
+        <v>20100617</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>20200320</t>
-        </is>
+      <c r="F91" t="n">
+        <v>20200320</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4787,30 +4631,24 @@
           <t>刘可</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1144517</t>
-        </is>
+      <c r="B92" t="n">
+        <v>1144517</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>20080823</t>
-        </is>
+      <c r="D92" t="n">
+        <v>20080823</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>10岁7月</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>20190414</t>
-        </is>
+      <c r="F92" t="n">
+        <v>20190414</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4839,30 +4677,24 @@
           <t>QIN_YI_NING</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>0745381</t>
-        </is>
+      <c r="B93" t="n">
+        <v>745381</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>20080809</t>
-        </is>
+      <c r="D93" t="n">
+        <v>20080809</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>8岁3月</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>20161205</t>
-        </is>
+      <c r="F93" t="n">
+        <v>20161205</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4882,6 +4714,2450 @@
       <c r="J93" t="inlineStr">
         <is>
           <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>杜安欣</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0826802</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>20061129</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>20170113</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>吕秋含</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1405905</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>20100924</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>9岁11月</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>20200913</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>曹雅淇</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0811548</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>20051031</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>20160502</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>林子晴</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0860270</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>20050618</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>20161019</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WEI_JING_YI_</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1002802</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>20050822</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>20170926</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>李怡静</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1441525</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>20120311</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>20200613</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ZHANG_SHU_YU_</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1198401</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>20090705</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>9岁11月</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>20190616</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>陈梓睿</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0984142</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>20081111</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>20160926</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>QIU_YI_NUO_</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1321292</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20090526</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>20190604</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>杨嘉美</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1137924</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>20110927</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>20191006</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>廖蕾茜</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0307535</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>20071024</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>20160716</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>曾可烨</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1566262</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>20100329</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>20201201</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>李嘉欣</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0929984</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>20070605</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>20160423</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>刘开悦</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1206198</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>20070627</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>20190420</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>杜安欣</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0826802</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>20061129</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>20151213</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>邱睿朶</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1514715</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>20110918</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>20200509</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DUAN_YU_DUO</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0715581</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>20080826</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>20171015</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>徐紫薇</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0966228</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>20080426</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>20170804</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>潘乐芸</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1583362</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>20110220</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>20211023</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>12岁4月</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>韦一</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0885373</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>20130114</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2岁10月</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>20151129</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>3岁2月</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>3岁9月</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>3岁2月</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>4岁2月</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>路雨尘</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0855135</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>20071108</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>20170217</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>米若灵</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1472092</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>20101222</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>20201226</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>张溪轩</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1406537</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>20120129</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>20211018</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>曾学思</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1412627</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>20111021</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>20200504</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>傅敏而</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1001332</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>20080901</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>20161119</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>冯怡岚</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0784821</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>20110915</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>20200411</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>徐旖晨</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0740877</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>20070420</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>7岁0月</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>20140513</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>杨清岚</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1333940</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>20100720</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>20200422</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>颜璐</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0825210</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>20080605</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>20160404</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>6岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>阮新一</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0857080</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>20071029</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>20150829</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>7岁3月</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>薛天博</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0889083</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>20021229</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>13岁6月</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>20160711</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>陈芃蓓</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1406635</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>20110222</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>20210720</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>张轩瑜</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1054174</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>20080613</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>20170501</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>林俏俏</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0826503</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>20071210</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>20170816</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>LONG_PEI_ER_</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0958295</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>20100226</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>20180827</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>刘开悦</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1206198</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>20070627</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>20180311</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>欧旭必丽</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0893345</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>20060413</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>20160529</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>王馨悦</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0774899</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>20060204</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>20170208</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>陈蔚淇</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0968366</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>20060705</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>20170325</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>罗伊涵</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0327474</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>20070415</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>7岁11月</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>20150318</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>乐梵熙</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0933894</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>20070419</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>20160813</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>徐乐然</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0812183</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>20070614</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>20160314</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>赵嘉悦</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1308170</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>20070830</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>20190119</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>12岁10月</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>林玉娴</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1014185</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>20070604</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>20170706</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>王嘉淇</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0815374</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20080211</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>20170525</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>胡若晨</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0737962</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>20110904</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>20201112</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>XIAO_YU_HAN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0614396</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>20081130</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>10岁11月</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>20191109</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>13岁6月</t>
         </is>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,30 +4723,24 @@
           <t>杜安欣</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>0826802</t>
-        </is>
+      <c r="B94" t="n">
+        <v>826802</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>20061129</t>
-        </is>
+      <c r="D94" t="n">
+        <v>20061129</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>10岁1月</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>20170113</t>
-        </is>
+      <c r="F94" t="n">
+        <v>20170113</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4775,30 +4769,24 @@
           <t>吕秋含</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1405905</t>
-        </is>
+      <c r="B95" t="n">
+        <v>1405905</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>20100924</t>
-        </is>
+      <c r="D95" t="n">
+        <v>20100924</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>9岁11月</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>20200913</t>
-        </is>
+      <c r="F95" t="n">
+        <v>20200913</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4827,30 +4815,24 @@
           <t>曹雅淇</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>0811548</t>
-        </is>
+      <c r="B96" t="n">
+        <v>811548</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>20051031</t>
-        </is>
+      <c r="D96" t="n">
+        <v>20051031</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>10岁6月</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>20160502</t>
-        </is>
+      <c r="F96" t="n">
+        <v>20160502</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4879,30 +4861,24 @@
           <t>林子晴</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>0860270</t>
-        </is>
+      <c r="B97" t="n">
+        <v>860270</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>20050618</t>
-        </is>
+      <c r="D97" t="n">
+        <v>20050618</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>11岁4月</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>20161019</t>
-        </is>
+      <c r="F97" t="n">
+        <v>20161019</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -4931,30 +4907,24 @@
           <t>WEI_JING_YI_</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1002802</t>
-        </is>
+      <c r="B98" t="n">
+        <v>1002802</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>20050822</t>
-        </is>
+      <c r="D98" t="n">
+        <v>20050822</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>12岁1月</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>20170926</t>
-        </is>
+      <c r="F98" t="n">
+        <v>20170926</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4983,30 +4953,24 @@
           <t>李怡静</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1441525</t>
-        </is>
+      <c r="B99" t="n">
+        <v>1441525</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>20120311</t>
-        </is>
+      <c r="D99" t="n">
+        <v>20120311</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>8岁3月</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>20200613</t>
-        </is>
+      <c r="F99" t="n">
+        <v>20200613</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5035,30 +4999,24 @@
           <t>ZHANG_SHU_YU_</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1198401</t>
-        </is>
+      <c r="B100" t="n">
+        <v>1198401</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>20090705</t>
-        </is>
+      <c r="D100" t="n">
+        <v>20090705</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>9岁11月</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>20190616</t>
-        </is>
+      <c r="F100" t="n">
+        <v>20190616</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5087,30 +5045,24 @@
           <t>陈梓睿</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>0984142</t>
-        </is>
+      <c r="B101" t="n">
+        <v>984142</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>20081111</t>
-        </is>
+      <c r="D101" t="n">
+        <v>20081111</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>7岁10月</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>20160926</t>
-        </is>
+      <c r="F101" t="n">
+        <v>20160926</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5139,30 +5091,24 @@
           <t>QIU_YI_NUO_</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1321292</t>
-        </is>
+      <c r="B102" t="n">
+        <v>1321292</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>20090526</t>
-        </is>
+      <c r="D102" t="n">
+        <v>20090526</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>10岁0月</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>20190604</t>
-        </is>
+      <c r="F102" t="n">
+        <v>20190604</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5191,30 +5137,24 @@
           <t>杨嘉美</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1137924</t>
-        </is>
+      <c r="B103" t="n">
+        <v>1137924</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>20110927</t>
-        </is>
+      <c r="D103" t="n">
+        <v>20110927</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>8岁0月</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>20191006</t>
-        </is>
+      <c r="F103" t="n">
+        <v>20191006</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5243,30 +5183,24 @@
           <t>廖蕾茜</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>0307535</t>
-        </is>
+      <c r="B104" t="n">
+        <v>307535</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>20071024</t>
-        </is>
+      <c r="D104" t="n">
+        <v>20071024</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>8岁8月</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>20160716</t>
-        </is>
+      <c r="F104" t="n">
+        <v>20160716</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5295,30 +5229,24 @@
           <t>曾可烨</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>1566262</t>
-        </is>
+      <c r="B105" t="n">
+        <v>1566262</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>20100329</t>
-        </is>
+      <c r="D105" t="n">
+        <v>20100329</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>10岁8月</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>20201201</t>
-        </is>
+      <c r="F105" t="n">
+        <v>20201201</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5347,30 +5275,24 @@
           <t>李嘉欣</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>0929984</t>
-        </is>
+      <c r="B106" t="n">
+        <v>929984</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>20070605</t>
-        </is>
+      <c r="D106" t="n">
+        <v>20070605</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>8岁10月</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>20160423</t>
-        </is>
+      <c r="F106" t="n">
+        <v>20160423</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5399,30 +5321,24 @@
           <t>刘开悦</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1206198</t>
-        </is>
+      <c r="B107" t="n">
+        <v>1206198</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>20070627</t>
-        </is>
+      <c r="D107" t="n">
+        <v>20070627</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>11岁9月</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>20190420</t>
-        </is>
+      <c r="F107" t="n">
+        <v>20190420</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5451,30 +5367,24 @@
           <t>杜安欣</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>0826802</t>
-        </is>
+      <c r="B108" t="n">
+        <v>826802</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>20061129</t>
-        </is>
+      <c r="D108" t="n">
+        <v>20061129</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>9岁0月</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>20151213</t>
-        </is>
+      <c r="F108" t="n">
+        <v>20151213</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5503,30 +5413,24 @@
           <t>邱睿朶</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1514715</t>
-        </is>
+      <c r="B109" t="n">
+        <v>1514715</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>20110918</t>
-        </is>
+      <c r="D109" t="n">
+        <v>20110918</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>8岁7月</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>20200509</t>
-        </is>
+      <c r="F109" t="n">
+        <v>20200509</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5555,30 +5459,24 @@
           <t>DUAN_YU_DUO</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>0715581</t>
-        </is>
+      <c r="B110" t="n">
+        <v>715581</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>20080826</t>
-        </is>
+      <c r="D110" t="n">
+        <v>20080826</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>9岁1月</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>20171015</t>
-        </is>
+      <c r="F110" t="n">
+        <v>20171015</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5607,30 +5505,24 @@
           <t>徐紫薇</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>0966228</t>
-        </is>
+      <c r="B111" t="n">
+        <v>966228</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>20080426</t>
-        </is>
+      <c r="D111" t="n">
+        <v>20080426</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>20170804</t>
-        </is>
+      <c r="F111" t="n">
+        <v>20170804</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5659,30 +5551,24 @@
           <t>潘乐芸</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1583362</t>
-        </is>
+      <c r="B112" t="n">
+        <v>1583362</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>20110220</t>
-        </is>
+      <c r="D112" t="n">
+        <v>20110220</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>10岁8月</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>20211023</t>
-        </is>
+      <c r="F112" t="n">
+        <v>20211023</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5711,30 +5597,24 @@
           <t>韦一</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>0885373</t>
-        </is>
+      <c r="B113" t="n">
+        <v>885373</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>20130114</t>
-        </is>
+      <c r="D113" t="n">
+        <v>20130114</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>2岁10月</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>20151129</t>
-        </is>
+      <c r="F113" t="n">
+        <v>20151129</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5763,30 +5643,24 @@
           <t>路雨尘</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>0855135</t>
-        </is>
+      <c r="B114" t="n">
+        <v>855135</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>20071108</t>
-        </is>
+      <c r="D114" t="n">
+        <v>20071108</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>20170217</t>
-        </is>
+      <c r="F114" t="n">
+        <v>20170217</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5815,30 +5689,24 @@
           <t>米若灵</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>1472092</t>
-        </is>
+      <c r="B115" t="n">
+        <v>1472092</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>20101222</t>
-        </is>
+      <c r="D115" t="n">
+        <v>20101222</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>10岁0月</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>20201226</t>
-        </is>
+      <c r="F115" t="n">
+        <v>20201226</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5867,30 +5735,24 @@
           <t>张溪轩</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1406537</t>
-        </is>
+      <c r="B116" t="n">
+        <v>1406537</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>20120129</t>
-        </is>
+      <c r="D116" t="n">
+        <v>20120129</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>9岁8月</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>20211018</t>
-        </is>
+      <c r="F116" t="n">
+        <v>20211018</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5919,30 +5781,24 @@
           <t>曾学思</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>1412627</t>
-        </is>
+      <c r="B117" t="n">
+        <v>1412627</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>20111021</t>
-        </is>
+      <c r="D117" t="n">
+        <v>20111021</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>8岁6月</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>20200504</t>
-        </is>
+      <c r="F117" t="n">
+        <v>20200504</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5971,30 +5827,24 @@
           <t>傅敏而</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1001332</t>
-        </is>
+      <c r="B118" t="n">
+        <v>1001332</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>20080901</t>
-        </is>
+      <c r="D118" t="n">
+        <v>20080901</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>8岁2月</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>20161119</t>
-        </is>
+      <c r="F118" t="n">
+        <v>20161119</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6023,30 +5873,24 @@
           <t>冯怡岚</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>0784821</t>
-        </is>
+      <c r="B119" t="n">
+        <v>784821</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>20110915</t>
-        </is>
+      <c r="D119" t="n">
+        <v>20110915</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>8岁6月</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>20200411</t>
-        </is>
+      <c r="F119" t="n">
+        <v>20200411</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6075,30 +5919,24 @@
           <t>徐旖晨</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>0740877</t>
-        </is>
+      <c r="B120" t="n">
+        <v>740877</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>20070420</t>
-        </is>
+      <c r="D120" t="n">
+        <v>20070420</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>7岁0月</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>20140513</t>
-        </is>
+      <c r="F120" t="n">
+        <v>20140513</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6127,30 +5965,24 @@
           <t>杨清岚</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1333940</t>
-        </is>
+      <c r="B121" t="n">
+        <v>1333940</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>20100720</t>
-        </is>
+      <c r="D121" t="n">
+        <v>20100720</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>9岁9月</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>20200422</t>
-        </is>
+      <c r="F121" t="n">
+        <v>20200422</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6179,30 +6011,24 @@
           <t>颜璐</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>0825210</t>
-        </is>
+      <c r="B122" t="n">
+        <v>825210</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>20080605</t>
-        </is>
+      <c r="D122" t="n">
+        <v>20080605</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>7岁10月</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>20160404</t>
-        </is>
+      <c r="F122" t="n">
+        <v>20160404</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6231,30 +6057,24 @@
           <t>阮新一</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>0857080</t>
-        </is>
+      <c r="B123" t="n">
+        <v>857080</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>20071029</t>
-        </is>
+      <c r="D123" t="n">
+        <v>20071029</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>7岁10月</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>20150829</t>
-        </is>
+      <c r="F123" t="n">
+        <v>20150829</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6283,30 +6103,24 @@
           <t>薛天博</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>0889083</t>
-        </is>
+      <c r="B124" t="n">
+        <v>889083</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>20021229</t>
-        </is>
+      <c r="D124" t="n">
+        <v>20021229</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>13岁6月</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>20160711</t>
-        </is>
+      <c r="F124" t="n">
+        <v>20160711</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6335,30 +6149,24 @@
           <t>陈芃蓓</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>1406635</t>
-        </is>
+      <c r="B125" t="n">
+        <v>1406635</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>20110222</t>
-        </is>
+      <c r="D125" t="n">
+        <v>20110222</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>10岁4月</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>20210720</t>
-        </is>
+      <c r="F125" t="n">
+        <v>20210720</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6387,30 +6195,24 @@
           <t>张轩瑜</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1054174</t>
-        </is>
+      <c r="B126" t="n">
+        <v>1054174</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>20080613</t>
-        </is>
+      <c r="D126" t="n">
+        <v>20080613</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>8岁10月</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>20170501</t>
-        </is>
+      <c r="F126" t="n">
+        <v>20170501</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6439,30 +6241,24 @@
           <t>林俏俏</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>0826503</t>
-        </is>
+      <c r="B127" t="n">
+        <v>826503</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>20071210</t>
-        </is>
+      <c r="D127" t="n">
+        <v>20071210</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>9岁8月</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>20170816</t>
-        </is>
+      <c r="F127" t="n">
+        <v>20170816</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6491,30 +6287,24 @@
           <t>LONG_PEI_ER_</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>0958295</t>
-        </is>
+      <c r="B128" t="n">
+        <v>958295</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>20100226</t>
-        </is>
+      <c r="D128" t="n">
+        <v>20100226</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>8岁6月</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>20180827</t>
-        </is>
+      <c r="F128" t="n">
+        <v>20180827</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6543,30 +6333,24 @@
           <t>刘开悦</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>1206198</t>
-        </is>
+      <c r="B129" t="n">
+        <v>1206198</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>20070627</t>
-        </is>
+      <c r="D129" t="n">
+        <v>20070627</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>10岁8月</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>20180311</t>
-        </is>
+      <c r="F129" t="n">
+        <v>20180311</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6595,30 +6379,24 @@
           <t>欧旭必丽</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>0893345</t>
-        </is>
+      <c r="B130" t="n">
+        <v>893345</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>20060413</t>
-        </is>
+      <c r="D130" t="n">
+        <v>20060413</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>10岁1月</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>20160529</t>
-        </is>
+      <c r="F130" t="n">
+        <v>20160529</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6647,30 +6425,24 @@
           <t>王馨悦</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>0774899</t>
-        </is>
+      <c r="B131" t="n">
+        <v>774899</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>20060204</t>
-        </is>
+      <c r="D131" t="n">
+        <v>20060204</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>11岁0月</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>20170208</t>
-        </is>
+      <c r="F131" t="n">
+        <v>20170208</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6699,30 +6471,24 @@
           <t>陈蔚淇</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>0968366</t>
-        </is>
+      <c r="B132" t="n">
+        <v>968366</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>20060705</t>
-        </is>
+      <c r="D132" t="n">
+        <v>20060705</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>10岁8月</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>20170325</t>
-        </is>
+      <c r="F132" t="n">
+        <v>20170325</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6751,30 +6517,24 @@
           <t>罗伊涵</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>0327474</t>
-        </is>
+      <c r="B133" t="n">
+        <v>327474</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>20070415</t>
-        </is>
+      <c r="D133" t="n">
+        <v>20070415</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>7岁11月</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>20150318</t>
-        </is>
+      <c r="F133" t="n">
+        <v>20150318</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6803,30 +6563,24 @@
           <t>乐梵熙</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>0933894</t>
-        </is>
+      <c r="B134" t="n">
+        <v>933894</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>20070419</t>
-        </is>
+      <c r="D134" t="n">
+        <v>20070419</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>20160813</t>
-        </is>
+      <c r="F134" t="n">
+        <v>20160813</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6855,30 +6609,24 @@
           <t>徐乐然</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>0812183</t>
-        </is>
+      <c r="B135" t="n">
+        <v>812183</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>20070614</t>
-        </is>
+      <c r="D135" t="n">
+        <v>20070614</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>8岁9月</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>20160314</t>
-        </is>
+      <c r="F135" t="n">
+        <v>20160314</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6907,30 +6655,24 @@
           <t>赵嘉悦</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>1308170</t>
-        </is>
+      <c r="B136" t="n">
+        <v>1308170</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>20070830</t>
-        </is>
+      <c r="D136" t="n">
+        <v>20070830</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>11岁4月</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>20190119</t>
-        </is>
+      <c r="F136" t="n">
+        <v>20190119</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6959,30 +6701,24 @@
           <t>林玉娴</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>1014185</t>
-        </is>
+      <c r="B137" t="n">
+        <v>1014185</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>20070604</t>
-        </is>
+      <c r="D137" t="n">
+        <v>20070604</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>10岁1月</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>20170706</t>
-        </is>
+      <c r="F137" t="n">
+        <v>20170706</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -7011,30 +6747,24 @@
           <t>王嘉淇</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>0815374</t>
-        </is>
+      <c r="B138" t="n">
+        <v>815374</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>20080211</t>
-        </is>
+      <c r="D138" t="n">
+        <v>20080211</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>9岁3月</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>20170525</t>
-        </is>
+      <c r="F138" t="n">
+        <v>20170525</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7063,30 +6793,24 @@
           <t>胡若晨</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>0737962</t>
-        </is>
+      <c r="B139" t="n">
+        <v>737962</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>20110904</t>
-        </is>
+      <c r="D139" t="n">
+        <v>20110904</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>9岁2月</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>20201112</t>
-        </is>
+      <c r="F139" t="n">
+        <v>20201112</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7115,49 +6839,7323 @@
           <t>XIAO_YU_HAN</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>0614396</t>
-        </is>
+      <c r="B140" t="n">
+        <v>614396</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>20081130</t>
-        </is>
+      <c r="D140" t="n">
+        <v>20081130</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>10岁11月</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="n">
+        <v>20191109</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>13岁6月</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>曾学思</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1412627</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>20111021</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>20210812</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>朱轩萱</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0746672</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20050824</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>20171211</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>13岁8月</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>13岁3月</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>15岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>凌楚涵</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0958450</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>20080612</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>20170824</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>陈梦瑶</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0968540</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20080111</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>20180722</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>LIAN_YU_CHEN_</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1065586</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>20090507</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>20170921</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>谢忆萱</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1104387</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>20080711</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>20170831</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>冯德邻</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0922836</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>20090507</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>8岁5月</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>20171005</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>姜珊</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1041635</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>20080812</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>20180308</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>李若诗</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1323336</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>20091106</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>20191109</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>刘馨卉</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0975713</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>20080430</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>20161204</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>张子涵</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1235700</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>20070809</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>20181104</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>林雨霏</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0907588</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>20080416</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>20160605</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>陈相宜</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1409043</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>20100606</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>20190331</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>王子萱</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0999635</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>20080213</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>20161114</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>林怡欣</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0364246</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>20080501</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>20170814</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>曾小钊</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0968980</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>20061202</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>20160811</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>宋哲萱</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0779958</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>20081009</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>20170814</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>LIN_ZI_HAN_</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1060535</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>20090505</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>20170813</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>陈梦雅</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0906555</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>20071009</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>20160214</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>付晋源</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1104003</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>20081012</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>20170831</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>陈尔爽</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1054082</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>20090922</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>7岁7月</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>20170501</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>吕秋含</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1405905</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>20100924</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>8岁11月</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>20190904</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>童雅欣</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1062320</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>20100915</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>20200920</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>张子悦</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0721309</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>20071005</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>20180613</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>13岁1月</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
         <is>
           <t>13岁0月</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>13岁0月</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>罗正岚</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1391304</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>20110203</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>何家琪</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1348403</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>20121107</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>20210320</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>何雨欣</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0855133</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>20070720</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>20160718</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>QIU_YI_NUO_</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1321292</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>20090526</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>20210313</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>13岁4月</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>12岁7月</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>14岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>吕秋含</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1405905</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>20100924</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>10岁5月</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>20210314</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>刘琦钰</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0765547</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>20070327</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>7岁4月</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>20140815</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>丁璇</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1025623</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>20070831</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>20170921</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>JIANG_QI_YU_</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1024797</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>20070803</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>20171122</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>吴春蔓</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0974618</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>20080324</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>8岁5月</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>20160827</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>张可</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0873978</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>20070804</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>20151024</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>于子涵</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0913201</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>20090227</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>7岁5月</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>20160804</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>刘子瑜</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1070942</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>20081024</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>20170618</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>LI_SHU_PAN_</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1384716</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>20100818</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>20190414</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>谢子盈</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0867224</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>20071104</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>20160721</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>杨影</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0850052</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>20050710</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>20150809</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>陈赞颖</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1034686</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>20080408</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>8岁11月</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>20170309</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>卓依琳</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0975579</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>20071022</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>20160830</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>钟诗蕴</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0800924</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>20041017</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>13岁8月</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>20180707</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>12岁7月</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>叶芷萱</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1015450</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>20120627</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>20210915</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>李嘉琦</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0867784</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>20071128</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>20151004</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>7岁1月</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>6岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>马绮瑛</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0934194</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>20061222</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>20170828</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>12岁8月</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>骆昀灿</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0901527</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>20071207</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>20160709</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>张瑞灵</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0992184</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>20090324</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>7岁7月</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>20161023</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>林子晴</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0860270</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>20050618</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>20160116</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>吕博宇</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1279704</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>20180611</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2岁7月</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>20210131</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2岁6月</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2岁4月</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1岁10月</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>骆昀灿</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>0901527</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>20071207</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>20180808</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>李嘉欣</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0929984</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>20070605</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>20180121</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>12岁2月</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>13岁6月</t>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>林怡欣</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0719187</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>20071220</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>6岁1月</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>20140210</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>6岁6月</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>6岁8月</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>7岁1月</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>6岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>钟诗蕴</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0800924</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>20041017</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>11岁5月</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>20160327</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>柳泓伊</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1505248</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>20120624</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>20200906</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>林子晴</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>0860270</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>20050618</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>20150909</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>唐遥</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>0987835</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>20071115</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>20161009</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>杨欣睿</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>0880014</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>20081001</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>8岁11月</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>20170922</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>刘一馨</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0984085</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>20120730</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>20200905</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>徐旖晨</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>0740877</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>20070420</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>20161129</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>11岁8月</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>游梓雯</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>0805210</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>20081101</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>6岁3月</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>20150211</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>6岁8月</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>7岁9月</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>PAN_YI_SHAN_</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>0870579</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>20130807</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>3岁6月</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>20170209</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>4岁6月</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>4岁3月</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>5岁1月</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2岁8月</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>张溪轩</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1406537</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>20120129</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>20201018</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>黄方茹</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>0877623</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>20070915</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>20151105</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>6岁8月</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>赵嘉悦</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1308170</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>20070830</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>10岁11月</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>20180822</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>刘子瑜</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1070942</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>20081024</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>20190222</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>LONG_PEI_ER_</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>0958295</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>20100226</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>7岁4月</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>20170712</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>黄翠盈</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>0842716</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>20070201</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>20160321</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>吴沛珊</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>0867230</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>20070218</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>20151002</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>何宣瑶</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1078352</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>20080314</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>20180118</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>陆科名</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0254087</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>20080627</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>20170814</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>13岁2月</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>黄佳怡</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>0817582</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>20050706</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>20180707</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>13岁9月</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>14岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>洪慧乔</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1360950</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>20100528</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>20210110</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>周馨玥</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0807360</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>20061106</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>20160520</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>池伊凡</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>0850392</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>20060411</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>20160421</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>郭欣然</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1314283</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20090828</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>20191117</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>陆芷瑶</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1468092</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>20120306</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>7岁6月</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>20190926</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>谢境权</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1518728</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>20170702</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2岁10月</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>20200527</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>3岁4月</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2岁4月</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>4岁0月</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>丁璇</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>0955846</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>20070831</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>20160707</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>童雅欣</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1062320</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>20100915</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>9岁5月</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>20200226</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>林洛羽</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1007169</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>20120704</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>20210514</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>詹奕菲</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1305776</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>20090604</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>20181216</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>帅宇晗</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>0855423</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>20061029</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>20150824</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>徐子煜</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0750763</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>20080701</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>7岁8月</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>20160304</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>吴梓晗</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0944616</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>20080610</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>20180114</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>袁千惠</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>0918153</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>20060218</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>20171006</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>12岁9月</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>池伊凡</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0946475</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>20060411</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>20170116</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>LIN_JIE</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>0636407</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>20061016</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>20161119</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>YI_SI_TONG_</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0820269</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>20120817</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>20201122</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>池伊凡</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0850392</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>20060411</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>20150810</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>颜璐</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0825210</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>20080605</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>6岁11月</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>20150511</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>6岁4月</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>7岁7月</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>5岁9月</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>王菲菲</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0955064</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>20070129</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>9岁5月</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>20160705</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>LIN_JIE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0636407</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>20061016</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>20160714</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>10岁2月</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>林楠</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1508634</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>20121107</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>7岁5月</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>20200407</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>6岁9月</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>7岁3月</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>7岁1月</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>6岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>张馨月</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0826753</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>20071201</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>7岁5月</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>20150517</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>胡筱暄</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1026404</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>20070524</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>20170828</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>谢子盈</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0867224</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>20071104</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>20151002</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>7岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>JIANG_QI_YU_</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1024797</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>20070803</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>20170402</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>10岁4月</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>金昕妤</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1194522</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>20081031</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>20191127</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>林玉娴</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1014185</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>20070604</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>20161229</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>徐子涵</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1017291</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>20080725</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>10岁11月</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>20190713</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>12岁8月</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>14岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>LI_SHU_PAN_</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1384716</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>20100818</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>20210825</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>14岁9月</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>13岁2月</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>15岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>陆展颜</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1187829</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>20080309</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>20180130</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>10岁3月</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>唐依晴</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0954912</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>20080617</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>20170315</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>8岁8月</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>陈雨嫣</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1579829</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>20120328</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>20210612</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>王嘉淇</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>0815374</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>20080211</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>7岁1月</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>20150403</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>5岁10月</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>7岁2月</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>6岁2月</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>6岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>齐泽菡</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>0724391</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>20081109</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>5岁3月</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>20140308</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>5岁6月</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>5岁6月</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>5岁9月</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>5岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>马绮瑛</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0934194</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>20061222</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>20160505</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>李美妤</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1256280</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>20120212</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>7岁3月</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>20190519</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>甘伟成</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1566580</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>20180524</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2岁6月</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>20201202</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>3岁6月</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>4岁8月</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>3岁3月</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>3岁6月</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>邓雅心</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1416039</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>20111026</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>7岁5月</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>20190422</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>钟婧明</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>0962562</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>20070827</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>11岁11月</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>20190822</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>阎亮孜</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>0822312</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>20040824</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>11岁10月</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>20160705</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>11岁9月</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>苏林晨</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1569199</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>20180531</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>3岁3月</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>20210903</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>周宣言</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1452308</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>20151013</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>3岁9月</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>20190808</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>9岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>赵婉怡</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>0939958</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>20080624</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>9岁5月</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>20171214</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>10岁1月</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>洪慧乔</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1360950</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>20100528</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>8岁5月</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>20181120</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>胡筱暄</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1026404</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>20070524</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>20170211</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>9岁3月</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>杜安欣</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>0826802</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>20061129</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>8岁5月</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>20150517</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>朱美瑜</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>0908693</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>20071203</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>13岁3月</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>20210303</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>14岁9月</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>12岁7月</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>15岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>周韵珊</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>0822613</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>20081115</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>20190904</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>12岁6月</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>卓依琳</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>0975579</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>20071022</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>20190120</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>14岁6月</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>12岁8月</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>14岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>毕武文晓</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1394808</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>20110316</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>20190609</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>陆芷瑶</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1468092</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>20120306</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>20211027</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>吴雨欣</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1027730</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>20090215</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>8岁0月</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>20170216</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>9岁1月</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>8岁3月</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>徐乐然</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>0812183</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>20070614</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>20161014</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>郭欣然</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1314283</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>20090828</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>20190406</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>10岁9月</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>王湘逸</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1099711</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>20100103</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>20180709</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>张碧桐</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1213733</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>20071104</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>11岁5月</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>20190421</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>12岁2月</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>安雨嘉</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>0890347</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>20080718</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>9岁10月</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>20180520</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>张溪轩</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1406537</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>20120129</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>7岁1月</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>20190323</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>8岁1月</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>8岁2月</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>8岁4月</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>王珮琳</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1515898</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>20120119</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>9岁6月</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>20210806</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>10岁8月</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>黄翠盈</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>0842716</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>20070201</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>20161005</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>11岁3月</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>9岁9月</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>11岁1月</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>吕航</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>0935995</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>20080106</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>9岁7月</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>20170828</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>10岁7月</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>冯小笑</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>0869977</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>20090910</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>6岁1月</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>20151012</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>5岁9月</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>6岁0月</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>6岁2月</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>5岁9月</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>吴雨昕</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>0955988</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>20081002</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>10岁6月</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>20190414</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>12岁3月</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>张晋宁</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>0856362</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>11岁8月</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>20170831</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>11岁2月</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>11岁6月</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>胡若晨</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>0737962</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>20110904</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>8岁7月</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>20200427</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>9岁4月</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>8岁6月</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>8岁10月</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>钟婧明</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>0962562</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>20070827</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>20170513</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>9岁8月</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>8岁9月</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>9岁2月</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>10岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>曾可烨</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1566262</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>20100329</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>20210417</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>12岁4月</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>11岁7月</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>13岁0月</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>童雅欣</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1062320</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>20100915</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>10岁10月</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>20210806</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>12岁1月</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>11岁0月</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>11岁4月</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>12岁0月</t>
         </is>
       </c>
     </row>
